--- a/irecodes-master/leak_demand_t15.xlsx
+++ b/irecodes-master/leak_demand_t15.xlsx
@@ -786,85 +786,85 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.004512188000429695</v>
+        <v>0.0009204398703657455</v>
       </c>
       <c r="AA2">
-        <v>0.004512187987122272</v>
+        <v>0.0009204398703267828</v>
       </c>
       <c r="AB2">
-        <v>0.004512188016960733</v>
+        <v>0.0009204398703959477</v>
       </c>
       <c r="AC2">
-        <v>0.004512188067759753</v>
+        <v>0.0009204398705213092</v>
       </c>
       <c r="AD2">
-        <v>0.004512188109764274</v>
+        <v>0.0009204398705883972</v>
       </c>
       <c r="AE2">
-        <v>0.00451218815999835</v>
+        <v>0.0009204398706856054</v>
       </c>
       <c r="AF2">
-        <v>0.00451218816788857</v>
+        <v>0.0009204398707108941</v>
       </c>
       <c r="AG2">
-        <v>0.004512188123613297</v>
+        <v>0.0009204398706607046</v>
       </c>
       <c r="AH2">
-        <v>0.004512188124884182</v>
+        <v>0.0009204398706695626</v>
       </c>
       <c r="AI2">
-        <v>0.004512188096130577</v>
+        <v>0.0009204398706183137</v>
       </c>
       <c r="AJ2">
-        <v>0.004512188095591271</v>
+        <v>0.0009204398706144786</v>
       </c>
       <c r="AK2">
-        <v>0.004512188100471947</v>
+        <v>0.0009204398706429526</v>
       </c>
       <c r="AL2">
-        <v>0.004512187996310753</v>
+        <v>0.0009204398703481156</v>
       </c>
       <c r="AM2">
-        <v>0.004512187990105739</v>
+        <v>0.0009204398703305292</v>
       </c>
       <c r="AN2">
-        <v>0.004512188035416093</v>
+        <v>0.000920439870438324</v>
       </c>
       <c r="AO2">
-        <v>0.004512188101922154</v>
+        <v>0.0009204398705595088</v>
       </c>
       <c r="AP2">
-        <v>0.004512188092596407</v>
+        <v>0.000920439870590715</v>
       </c>
       <c r="AQ2">
-        <v>0.004512188094745167</v>
+        <v>0.000920439870607458</v>
       </c>
       <c r="AR2">
-        <v>0.004512188099845368</v>
+        <v>0.0009204398706382713</v>
       </c>
       <c r="AS2">
-        <v>0.004512188099159972</v>
+        <v>0.0009204398706325189</v>
       </c>
       <c r="AT2">
-        <v>0.00451218815185436</v>
+        <v>0.0009204398707996172</v>
       </c>
       <c r="AU2">
-        <v>0.004512188009112424</v>
+        <v>0.0009204398703772232</v>
       </c>
       <c r="AV2">
-        <v>0.004512188068739961</v>
+        <v>0.0009204398705005365</v>
       </c>
       <c r="AW2">
-        <v>0.004512188107839999</v>
+        <v>0.0009204398705842649</v>
       </c>
       <c r="AX2">
-        <v>0.004512188091223108</v>
+        <v>0.0009204398705701533</v>
       </c>
       <c r="AY2">
-        <v>0.004512188096665816</v>
+        <v>0.0009204398706121681</v>
       </c>
       <c r="AZ2">
-        <v>0.004512188150641302</v>
+        <v>0.0009204398707908974</v>
       </c>
       <c r="BA2">
         <v>0</v>
